--- a/artfynd/A 64289-2021.xlsx
+++ b/artfynd/A 64289-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100078720</v>
+        <v>100078705</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>56540</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,29 +696,33 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -728,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>892140.59230468</v>
+        <v>891870.0593047945</v>
       </c>
       <c r="R2" t="n">
-        <v>7315543.811931515</v>
+        <v>7315662.380057276</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -800,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100078705</v>
+        <v>100078725</v>
       </c>
       <c r="B3" t="n">
-        <v>56540</v>
+        <v>57007</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +816,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>103042</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>par i lämplig häckbiotop</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -852,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>891870.0593047945</v>
+        <v>891892.9782472391</v>
       </c>
       <c r="R3" t="n">
-        <v>7315662.380057276</v>
+        <v>7315677.599053372</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -924,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100078718</v>
+        <v>100078713</v>
       </c>
       <c r="B4" t="n">
         <v>56411</v>
@@ -962,7 +970,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -972,10 +980,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>892064.5008710007</v>
+        <v>891337.5114170944</v>
       </c>
       <c r="R4" t="n">
-        <v>7315408.872080766</v>
+        <v>7315865.340614381</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1044,7 +1052,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100078722</v>
+        <v>110311519</v>
       </c>
       <c r="B5" t="n">
         <v>56411</v>
@@ -1082,7 +1090,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1092,13 +1100,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>892131.3477766616</v>
+        <v>891362.1852933455</v>
       </c>
       <c r="R5" t="n">
-        <v>7315498.82523889</v>
+        <v>7315800.869760725</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1122,7 +1130,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1132,7 +1140,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1152,22 +1160,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Maria Stoltz</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Maria Stoltz</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100078725</v>
+        <v>100078720</v>
       </c>
       <c r="B6" t="n">
-        <v>57007</v>
+        <v>56411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,20 +1184,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103042</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1197,20 +1205,12 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>par i lämplig häckbiotop</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>891892.9782472391</v>
+        <v>892140.59230468</v>
       </c>
       <c r="R6" t="n">
-        <v>7315677.599053372</v>
+        <v>7315543.811931515</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100078721</v>
+        <v>100078718</v>
       </c>
       <c r="B7" t="n">
         <v>56411</v>
@@ -1330,7 +1330,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>892145.1218588152</v>
+        <v>892064.5008710007</v>
       </c>
       <c r="R7" t="n">
-        <v>7315507.794911167</v>
+        <v>7315408.872080766</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100078713</v>
+        <v>100078722</v>
       </c>
       <c r="B8" t="n">
         <v>56411</v>
@@ -1450,7 +1450,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>891337.5114170944</v>
+        <v>892131.3477766616</v>
       </c>
       <c r="R8" t="n">
-        <v>7315865.340614381</v>
+        <v>7315498.82523889</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110311519</v>
+        <v>100078721</v>
       </c>
       <c r="B9" t="n">
         <v>56411</v>
@@ -1570,7 +1570,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>891362.1852933455</v>
+        <v>892145.1218588152</v>
       </c>
       <c r="R9" t="n">
-        <v>7315800.869760725</v>
+        <v>7315507.794911167</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1640,12 +1640,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Maria Stoltz</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Maria Stoltz</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>

--- a/artfynd/A 64289-2021.xlsx
+++ b/artfynd/A 64289-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100078705</v>
+        <v>100078720</v>
       </c>
       <c r="B2" t="n">
-        <v>56540</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,33 +696,29 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -732,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>891870.0593047945</v>
+        <v>892140.59230468</v>
       </c>
       <c r="R2" t="n">
-        <v>7315662.380057276</v>
+        <v>7315543.811931515</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -804,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100078725</v>
+        <v>100078705</v>
       </c>
       <c r="B3" t="n">
-        <v>57007</v>
+        <v>56540</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,41 +812,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103042</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>par i lämplig häckbiotop</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -860,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>891892.9782472391</v>
+        <v>891870.0593047945</v>
       </c>
       <c r="R3" t="n">
-        <v>7315677.599053372</v>
+        <v>7315662.380057276</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -932,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100078713</v>
+        <v>100078718</v>
       </c>
       <c r="B4" t="n">
         <v>56411</v>
@@ -970,7 +962,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -980,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>891337.5114170944</v>
+        <v>892064.5008710007</v>
       </c>
       <c r="R4" t="n">
-        <v>7315865.340614381</v>
+        <v>7315408.872080766</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1052,7 +1044,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110311519</v>
+        <v>100078722</v>
       </c>
       <c r="B5" t="n">
         <v>56411</v>
@@ -1090,7 +1082,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1100,13 +1092,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>891362.1852933455</v>
+        <v>892131.3477766616</v>
       </c>
       <c r="R5" t="n">
-        <v>7315800.869760725</v>
+        <v>7315498.82523889</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1122,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1140,7 +1132,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1160,22 +1152,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Maria Stoltz</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Maria Stoltz</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100078720</v>
+        <v>100078725</v>
       </c>
       <c r="B6" t="n">
-        <v>56411</v>
+        <v>57007</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,20 +1176,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>103042</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1205,12 +1197,20 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>par i lämplig häckbiotop</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>892140.59230468</v>
+        <v>891892.9782472391</v>
       </c>
       <c r="R6" t="n">
-        <v>7315543.811931515</v>
+        <v>7315677.599053372</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100078718</v>
+        <v>100078721</v>
       </c>
       <c r="B7" t="n">
         <v>56411</v>
@@ -1330,7 +1330,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>892064.5008710007</v>
+        <v>892145.1218588152</v>
       </c>
       <c r="R7" t="n">
-        <v>7315408.872080766</v>
+        <v>7315507.794911167</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100078722</v>
+        <v>100078713</v>
       </c>
       <c r="B8" t="n">
         <v>56411</v>
@@ -1450,7 +1450,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>892131.3477766616</v>
+        <v>891337.5114170944</v>
       </c>
       <c r="R8" t="n">
-        <v>7315498.82523889</v>
+        <v>7315865.340614381</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100078721</v>
+        <v>110311519</v>
       </c>
       <c r="B9" t="n">
         <v>56411</v>
@@ -1570,7 +1570,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>892145.1218588152</v>
+        <v>891362.1852933455</v>
       </c>
       <c r="R9" t="n">
-        <v>7315507.794911167</v>
+        <v>7315800.869760725</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1640,12 +1640,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Maria Stoltz</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Maria Stoltz</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
